--- a/PREVIA GRC - NOVO LAYOUT.xlsx
+++ b/PREVIA GRC - NOVO LAYOUT.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 - ACCOUNT PAYABLE (AP)\007_BRACELL SP_BSP 3100\01_TAX TEAM\MATEUS ROCHA\PROJETO BRACELL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A862B3-3DE7-470C-BD39-ABBA0F72858B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
   <si>
     <t>Status</t>
   </si>
@@ -19,6 +28,9 @@
     <t>Status global</t>
   </si>
   <si>
+    <t>Código status</t>
+  </si>
+  <si>
     <t>Nome emissor</t>
   </si>
   <si>
@@ -67,10 +79,10 @@
     <t>UF emissor</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>Protecao e Vestuario Ind e Com LTDA</t>
@@ -496,20 +508,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,7 +525,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,18 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,44 +548,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" wrapText="0"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment indent="2" vertical="top" wrapText="0"/>
+      <alignment vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="0"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="0"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="0"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -610,27 +604,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="2" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -654,27 +654,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="3" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -698,27 +704,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="4" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -742,27 +754,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="5" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -786,27 +804,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="6" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -830,27 +854,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="7" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -874,27 +904,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="8" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -918,27 +954,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="9" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -962,27 +1004,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY"/>
+        <xdr:cNvPr id="10" name="PictureICON_SYSTEM_OKAY" descr="ICON_SYSTEM_OKAY">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -1006,27 +1054,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture~Icon/RedLed" descr="~Icon/RedLed"/>
+        <xdr:cNvPr id="11" name="Picture~Icon/RedLed" descr="~Icon/RedLed">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -1050,27 +1104,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture~Icon/RedLed" descr="~Icon/RedLed"/>
+        <xdr:cNvPr id="12" name="Picture~Icon/RedLed" descr="~Icon/RedLed">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -1094,27 +1154,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture~Icon/GreenLed" descr="~Icon/GreenLed"/>
+        <xdr:cNvPr id="13" name="Picture~Icon/GreenLed" descr="~Icon/GreenLed">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5334000" y="161925"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:solidFill>
           <a:srgbClr val="FFFFFF">
             <a:alpha val="0"/>
           </a:srgbClr>
@@ -1126,41 +1192,333 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1"/>
-  </sheetPr>
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView rightToLeft="0" tabSelected="1" workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="8" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="15" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="41" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="19" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="9" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="7" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="45" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="20" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="24" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="34" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="23" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="17" customWidth="1"/>
-    <col min="13" max="13" bestFit="1" width="60" customWidth="1"/>
-    <col min="14" max="14" bestFit="1" width="13" customWidth="1"/>
-    <col min="15" max="15" bestFit="1" width="11" customWidth="1"/>
-    <col min="16" max="16" bestFit="1" width="25" customWidth="1"/>
-    <col min="17" max="17" bestFit="1" width="62" customWidth="1"/>
-    <col min="18" max="18" bestFit="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="62" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,9 +1573,12 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1254,14 +1615,14 @@
       <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="4">
-        <v>8895.95</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4">
+        <v>8895.9500000000007</v>
+      </c>
+      <c r="P2" s="5">
         <v>45772</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>32</v>
@@ -1269,14 +1630,17 @@
       <c r="R2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="S2" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>35</v>
@@ -1285,10 +1649,10 @@
         <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>38</v>
@@ -1303,34 +1667,37 @@
         <v>41</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1452.40</v>
-      </c>
-      <c r="O3" s="5">
+        <v>30</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1452.4</v>
+      </c>
+      <c r="P3" s="5">
         <v>45772</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>46</v>
@@ -1357,19 +1724,19 @@
         <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="4">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="4">
         <v>13.39</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>45771</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>56</v>
@@ -1377,14 +1744,17 @@
       <c r="R4" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="S4" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>59</v>
@@ -1393,10 +1763,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>62</v>
@@ -1411,34 +1781,37 @@
         <v>65</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="4">
+        <v>30</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="4">
         <v>5017.01</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>45772</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>70</v>
@@ -1447,10 +1820,10 @@
         <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>73</v>
@@ -1465,34 +1838,37 @@
         <v>76</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="4">
-        <v>789.60</v>
-      </c>
-      <c r="O6" s="5">
+        <v>30</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="4">
+        <v>789.6</v>
+      </c>
+      <c r="P6" s="5">
         <v>45769</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>57</v>
+        <v>80</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>81</v>
@@ -1501,10 +1877,10 @@
         <v>82</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>84</v>
@@ -1519,34 +1895,37 @@
         <v>87</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="4">
+        <v>30</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="4">
         <v>487.36</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>45772</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>57</v>
+        <v>91</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>92</v>
@@ -1555,10 +1934,10 @@
         <v>93</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>95</v>
@@ -1573,34 +1952,37 @@
         <v>98</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="4">
+        <v>30</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="4">
         <v>7.21</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>45772</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>101</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>57</v>
+        <v>102</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>103</v>
@@ -1609,10 +1991,10 @@
         <v>104</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>106</v>
@@ -1627,19 +2009,19 @@
         <v>109</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5760.00</v>
-      </c>
-      <c r="O9" s="5">
+        <v>30</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5760</v>
+      </c>
+      <c r="P9" s="5">
         <v>45758</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>112</v>
@@ -1647,14 +2029,17 @@
       <c r="R9" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="S9" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>115</v>
@@ -1663,10 +2048,10 @@
         <v>116</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>118</v>
@@ -1681,34 +2066,37 @@
         <v>121</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="4">
-        <v>294.80</v>
-      </c>
-      <c r="O10" s="5">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="4">
+        <v>294.8</v>
+      </c>
+      <c r="P10" s="5">
         <v>45764</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>124</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>127</v>
@@ -1717,10 +2105,10 @@
         <v>128</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>130</v>
@@ -1735,34 +2123,37 @@
         <v>133</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N11" s="4">
-        <v>274.10</v>
-      </c>
-      <c r="O11" s="5">
+        <v>30</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="4">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="P11" s="5">
         <v>45748</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>136</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>57</v>
+        <v>137</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>138</v>
@@ -1771,10 +2162,10 @@
         <v>139</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>141</v>
@@ -1789,34 +2180,37 @@
         <v>144</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N12" s="4">
-        <v>552.50</v>
-      </c>
-      <c r="O12" s="5">
+        <v>30</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" s="4">
+        <v>552.5</v>
+      </c>
+      <c r="P12" s="5">
         <v>45769</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>147</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>113</v>
+        <v>148</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="s"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>150</v>
@@ -1825,10 +2219,10 @@
         <v>151</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>153</v>
@@ -1843,31 +2237,34 @@
         <v>156</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N13" s="4">
+        <v>30</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="4">
         <v>493308.36</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>45772</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>159</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>57</v>
+        <v>160</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>